--- a/HALFMIPS.xlsx
+++ b/HALFMIPS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="112">
   <si>
     <t>bits 28..26</t>
   </si>
@@ -343,6 +343,15 @@
   </si>
   <si>
     <t>HSLTU</t>
+  </si>
+  <si>
+    <t>HORI</t>
+  </si>
+  <si>
+    <t>HXORI</t>
+  </si>
+  <si>
+    <t>HLUI</t>
   </si>
 </sst>
 </file>
@@ -404,16 +413,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -808,19 +817,19 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -879,7 +888,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -914,7 +923,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -947,7 +956,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -980,7 +989,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1013,7 +1022,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1046,7 +1055,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1079,7 +1088,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1112,7 +1121,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1145,22 +1154,22 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -1219,7 +1228,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="1">
@@ -1254,7 +1263,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -1287,7 +1296,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -1320,7 +1329,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -1353,7 +1362,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -1386,7 +1395,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1">
         <v>5</v>
       </c>
@@ -1419,7 +1428,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -1452,7 +1461,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -1485,22 +1494,22 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -1559,7 +1568,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="1">
@@ -1594,7 +1603,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1627,7 +1636,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -1660,7 +1669,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -1694,195 +1703,195 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1907,19 +1916,19 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -1978,7 +1987,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -2013,7 +2022,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2046,7 +2055,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -2079,40 +2088,40 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
+      <c r="A7" s="8"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>31</v>
+      <c r="I7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -2145,7 +2154,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -2178,7 +2187,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -2211,7 +2220,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
+      <c r="A11" s="8"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -2244,22 +2253,22 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -2318,7 +2327,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="1">
@@ -2353,7 +2362,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -2386,7 +2395,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -2419,7 +2428,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -2452,7 +2461,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -2485,7 +2494,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
+      <c r="A22" s="8"/>
       <c r="B22" s="1">
         <v>5</v>
       </c>
@@ -2518,40 +2527,40 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1">
         <v>6</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="G23" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H23" s="9" t="s">
+      <c r="H23" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="7" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -2564,10 +2573,10 @@
       <c r="E24" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="7" t="s">
         <v>108</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -2584,22 +2593,22 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -2658,7 +2667,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="1">
@@ -2693,7 +2702,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
+      <c r="A31" s="8"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -2726,7 +2735,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -2759,7 +2768,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
+      <c r="A33" s="8"/>
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -2793,206 +2802,207 @@
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="8"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="8"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="8"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="N37" s="8"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="8"/>
-      <c r="B38" s="8"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="8"/>
-      <c r="N38" s="8"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A39" s="8"/>
-      <c r="B39" s="8"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="8"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="8"/>
-      <c r="N39" s="8"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="8"/>
-      <c r="L40" s="8"/>
-      <c r="M40" s="8"/>
-      <c r="N40" s="8"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="8"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="8"/>
-      <c r="N41" s="8"/>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="8"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A43" s="8"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="8"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="8"/>
-      <c r="N43" s="8"/>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="8"/>
-      <c r="B44" s="8"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="8"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-      <c r="N44" s="8"/>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A45" s="8"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A30:A33"/>
     <mergeCell ref="D1:K1"/>
     <mergeCell ref="A4:A11"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="A17:A24"/>
     <mergeCell ref="D27:K27"/>
-    <mergeCell ref="A30:A33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/HALFMIPS.xlsx
+++ b/HALFMIPS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="135">
   <si>
     <t>bits 28..26</t>
   </si>
@@ -352,13 +352,82 @@
   </si>
   <si>
     <t>HLUI</t>
+  </si>
+  <si>
+    <t>HBEQ</t>
+  </si>
+  <si>
+    <t>HBNE</t>
+  </si>
+  <si>
+    <t>HBLEZ</t>
+  </si>
+  <si>
+    <t>HBGTZ</t>
+  </si>
+  <si>
+    <t>HLB</t>
+  </si>
+  <si>
+    <t>HLBU</t>
+  </si>
+  <si>
+    <t>HLH</t>
+  </si>
+  <si>
+    <t>HBLTZ</t>
+  </si>
+  <si>
+    <t>HBGEZ</t>
+  </si>
+  <si>
+    <t>HBLTZAL</t>
+  </si>
+  <si>
+    <t>HBGEZAL</t>
+  </si>
+  <si>
+    <t>HSLL</t>
+  </si>
+  <si>
+    <t>HSRL</t>
+  </si>
+  <si>
+    <t>HSRA</t>
+  </si>
+  <si>
+    <t>HSLLV</t>
+  </si>
+  <si>
+    <t>HSRLV</t>
+  </si>
+  <si>
+    <t>HSRAV</t>
+  </si>
+  <si>
+    <t>HMFHI</t>
+  </si>
+  <si>
+    <t>HMFLO</t>
+  </si>
+  <si>
+    <t>HMULT</t>
+  </si>
+  <si>
+    <t>HMULTU</t>
+  </si>
+  <si>
+    <t>HDIV</t>
+  </si>
+  <si>
+    <t>HDIVU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -377,6 +446,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -402,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -417,6 +494,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -820,16 +906,16 @@
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -888,7 +974,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -923,7 +1009,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -956,7 +1042,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -989,7 +1075,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1022,7 +1108,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1055,7 +1141,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1088,7 +1174,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
@@ -1121,7 +1207,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -1160,16 +1246,16 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -1228,7 +1314,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="1">
@@ -1263,7 +1349,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -1296,7 +1382,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -1329,7 +1415,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -1362,7 +1448,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -1395,7 +1481,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1">
         <v>5</v>
       </c>
@@ -1428,7 +1514,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -1461,7 +1547,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -1500,16 +1586,16 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -1568,7 +1654,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="1">
@@ -1603,7 +1689,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1636,7 +1722,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -1669,7 +1755,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -1919,16 +2005,16 @@
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -1987,7 +2073,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -1996,10 +2082,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -2022,7 +2108,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2055,7 +2141,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -2074,21 +2160,21 @@
       <c r="G6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>31</v>
+      <c r="H6" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="8"/>
+      <c r="A7" s="11"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -2121,7 +2207,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="8"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -2154,7 +2240,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -2187,15 +2273,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="8"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
+      <c r="D10" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -2206,21 +2292,21 @@
       <c r="G10" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="H10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="8"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
@@ -2245,10 +2331,10 @@
       <c r="I11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="J11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="10" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2259,16 +2345,16 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -2327,7 +2413,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="11" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="1">
@@ -2362,7 +2448,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
+      <c r="A18" s="11"/>
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -2395,7 +2481,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="8"/>
+      <c r="A19" s="11"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -2414,21 +2500,21 @@
       <c r="G19" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="H19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
+      <c r="A20" s="11"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -2447,21 +2533,21 @@
       <c r="G20" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>31</v>
+      <c r="H20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="8"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -2494,17 +2580,17 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="1">
         <v>5</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
+      <c r="D22" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F22" s="1" t="s">
@@ -2527,7 +2613,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="8"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -2560,18 +2646,18 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>31</v>
+      <c r="D24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>107</v>
@@ -2579,17 +2665,17 @@
       <c r="G24" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>31</v>
+      <c r="H24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -2599,16 +2685,16 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -2667,7 +2753,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="11" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="1">
@@ -2702,18 +2788,18 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="8"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>31</v>
+      <c r="D31" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>31</v>
@@ -2735,7 +2821,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="8"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -2768,18 +2854,18 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="8"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="1">
         <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>31</v>
+      <c r="D33" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>31</v>

--- a/HALFMIPS.xlsx
+++ b/HALFMIPS.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MARO\work\github\BINUTILS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF7235D-BE17-420C-9567-6942C52ADA3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="19440" windowHeight="10035" activeTab="1"/>
+    <workbookView xWindow="-25320" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MIPS-I" sheetId="4" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="137">
   <si>
     <t>bits 28..26</t>
   </si>
@@ -421,12 +427,18 @@
   </si>
   <si>
     <t>HDIVU</t>
+  </si>
+  <si>
+    <t>LWC0</t>
+  </si>
+  <si>
+    <t>SWC0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -479,7 +491,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -506,6 +518,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -520,6 +535,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -895,7 +913,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -906,16 +924,16 @@
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -974,7 +992,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -983,10 +1001,10 @@
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1009,7 +1027,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -1042,7 +1060,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -1075,7 +1093,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -1108,7 +1126,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -1141,7 +1159,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -1174,15 +1192,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
+      <c r="D10" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -1207,15 +1225,15 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
+      <c r="D11" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>47</v>
@@ -1246,16 +1264,16 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -1314,7 +1332,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="1">
@@ -1349,7 +1367,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -1382,7 +1400,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -1415,7 +1433,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -1448,7 +1466,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -1481,7 +1499,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1">
         <v>5</v>
       </c>
@@ -1514,7 +1532,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -1547,7 +1565,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -1586,16 +1604,16 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -1654,7 +1672,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="1">
@@ -1689,7 +1707,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -1722,7 +1740,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -1755,7 +1773,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -1994,7 +2012,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -2005,16 +2023,16 @@
       <c r="A1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1"/>
@@ -2073,7 +2091,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1">
@@ -2108,7 +2126,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
+      <c r="A5" s="12"/>
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -2141,7 +2159,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -2174,7 +2192,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
+      <c r="A7" s="12"/>
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -2207,7 +2225,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
+      <c r="A8" s="12"/>
       <c r="B8" s="1">
         <v>4</v>
       </c>
@@ -2240,7 +2258,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1">
         <v>5</v>
       </c>
@@ -2273,15 +2291,15 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1">
         <v>6</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>116</v>
+      <c r="D10" s="11" t="s">
+        <v>135</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>44</v>
@@ -2293,28 +2311,28 @@
         <v>46</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>31</v>
+      <c r="J10" s="7" t="s">
+        <v>117</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>31</v>
+      <c r="D11" s="11" t="s">
+        <v>136</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>47</v>
@@ -2345,16 +2363,16 @@
       <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
@@ -2413,7 +2431,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="1">
@@ -2448,7 +2466,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1">
         <v>1</v>
       </c>
@@ -2481,7 +2499,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
+      <c r="A19" s="12"/>
       <c r="B19" s="1">
         <v>2</v>
       </c>
@@ -2514,7 +2532,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1">
         <v>3</v>
       </c>
@@ -2547,7 +2565,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1">
         <v>4</v>
       </c>
@@ -2580,7 +2598,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1">
         <v>5</v>
       </c>
@@ -2605,15 +2623,15 @@
       <c r="I22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>31</v>
+      <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
+      <c r="A23" s="12"/>
       <c r="B23" s="1">
         <v>6</v>
       </c>
@@ -2646,7 +2664,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
+      <c r="A24" s="12"/>
       <c r="B24" s="1">
         <v>7</v>
       </c>
@@ -2656,20 +2674,20 @@
       <c r="D24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>107</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I24" s="7" t="s">
         <v>126</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>127</v>
@@ -2685,16 +2703,16 @@
       <c r="B27" t="s">
         <v>56</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
@@ -2753,7 +2771,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>86</v>
       </c>
       <c r="B30" s="1">
@@ -2788,7 +2806,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
+      <c r="A31" s="12"/>
       <c r="B31" s="1">
         <v>1</v>
       </c>
@@ -2821,7 +2839,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
+      <c r="A32" s="12"/>
       <c r="B32" s="1">
         <v>2</v>
       </c>
@@ -2854,7 +2872,7 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
+      <c r="A33" s="12"/>
       <c r="B33" s="1">
         <v>3</v>
       </c>
@@ -3093,7 +3111,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3101,5 +3119,6 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>